--- a/data/pca/factorExposure/factorExposure_2009-01-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01691267790858775</v>
+        <v>-0.01570769829221848</v>
       </c>
       <c r="C2">
-        <v>0.008157734619201802</v>
+        <v>-0.01058389115095475</v>
       </c>
       <c r="D2">
-        <v>0.01607808373140163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01328583670669067</v>
+      </c>
+      <c r="E2">
+        <v>0.00224635896622626</v>
+      </c>
+      <c r="F2">
+        <v>0.01265461735243703</v>
+      </c>
+      <c r="G2">
+        <v>0.01620278554285075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08061324571672901</v>
+        <v>-0.08269015146828848</v>
       </c>
       <c r="C4">
-        <v>0.08208510455342019</v>
+        <v>-0.0872232633404883</v>
       </c>
       <c r="D4">
-        <v>-0.06153866925593812</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05965829969580261</v>
+      </c>
+      <c r="E4">
+        <v>-0.03328688314350107</v>
+      </c>
+      <c r="F4">
+        <v>0.02953532338341145</v>
+      </c>
+      <c r="G4">
+        <v>0.02864283717036831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003204825451914131</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-0.002073800732072093</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.002404318663386697</v>
+      </c>
+      <c r="E5">
+        <v>0.002463803354153824</v>
+      </c>
+      <c r="F5">
+        <v>-0.002521629625099341</v>
+      </c>
+      <c r="G5">
+        <v>-0.001119757249633433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1679795516015477</v>
+        <v>-0.1697338525860748</v>
       </c>
       <c r="C6">
-        <v>-0.02176092562891201</v>
+        <v>0.01271843112897096</v>
       </c>
       <c r="D6">
-        <v>-0.04461475348551234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.04465465724957014</v>
+      </c>
+      <c r="E6">
+        <v>-0.03269158036599348</v>
+      </c>
+      <c r="F6">
+        <v>-0.0632853739948786</v>
+      </c>
+      <c r="G6">
+        <v>0.003846071443830769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05394060274608529</v>
+        <v>-0.05800025903595026</v>
       </c>
       <c r="C7">
-        <v>0.05823925462662224</v>
+        <v>-0.06254985897800991</v>
       </c>
       <c r="D7">
-        <v>-0.03523887800971436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03869940967503779</v>
+      </c>
+      <c r="E7">
+        <v>-0.06943399084349454</v>
+      </c>
+      <c r="F7">
+        <v>0.06065324734877529</v>
+      </c>
+      <c r="G7">
+        <v>0.03896989492571847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05516694856311532</v>
+        <v>-0.05150401165539871</v>
       </c>
       <c r="C8">
-        <v>0.05377251501919088</v>
+        <v>-0.0542342011953513</v>
       </c>
       <c r="D8">
-        <v>0.008425636092256789</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.01143228159192789</v>
+      </c>
+      <c r="E8">
+        <v>0.005814256331482833</v>
+      </c>
+      <c r="F8">
+        <v>0.04215021980842421</v>
+      </c>
+      <c r="G8">
+        <v>-0.0008331966673624988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05914808114058439</v>
+        <v>-0.06265173330296124</v>
       </c>
       <c r="C9">
-        <v>0.08694690164272552</v>
+        <v>-0.09065521624672804</v>
       </c>
       <c r="D9">
-        <v>-0.08725114319116542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08251142628567286</v>
+      </c>
+      <c r="E9">
+        <v>-0.04630296748408723</v>
+      </c>
+      <c r="F9">
+        <v>0.05417444206566144</v>
+      </c>
+      <c r="G9">
+        <v>0.002464581886699635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1100933644376939</v>
+        <v>-0.1021099942261469</v>
       </c>
       <c r="C10">
-        <v>-0.143349452748917</v>
+        <v>0.1347915010193265</v>
       </c>
       <c r="D10">
-        <v>0.105693260110916</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.09143238798149055</v>
+      </c>
+      <c r="E10">
+        <v>0.04602138615690238</v>
+      </c>
+      <c r="F10">
+        <v>0.0505835176047386</v>
+      </c>
+      <c r="G10">
+        <v>-0.02284089864452781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07777113931702329</v>
+        <v>-0.07571894024437541</v>
       </c>
       <c r="C11">
-        <v>0.1250309040197258</v>
+        <v>-0.1260644987829175</v>
       </c>
       <c r="D11">
-        <v>-0.06711208346911493</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05788058874570483</v>
+      </c>
+      <c r="E11">
+        <v>-0.01079150106813621</v>
+      </c>
+      <c r="F11">
+        <v>0.07641086359658207</v>
+      </c>
+      <c r="G11">
+        <v>-0.004235022162516232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08073049952435062</v>
+        <v>-0.0764911395825746</v>
       </c>
       <c r="C12">
-        <v>0.1494678716631867</v>
+        <v>-0.1500462169760314</v>
       </c>
       <c r="D12">
-        <v>-0.0727787401514666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.06492167704261728</v>
+      </c>
+      <c r="E12">
+        <v>-0.01693837529854648</v>
+      </c>
+      <c r="F12">
+        <v>0.07951246039467585</v>
+      </c>
+      <c r="G12">
+        <v>0.0004865047781454114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04098416468760917</v>
+        <v>-0.04167114002919086</v>
       </c>
       <c r="C13">
-        <v>0.06417035024282997</v>
+        <v>-0.07080137327992371</v>
       </c>
       <c r="D13">
-        <v>-0.02623440824832989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02760886714668209</v>
+      </c>
+      <c r="E13">
+        <v>-0.02359985470040332</v>
+      </c>
+      <c r="F13">
+        <v>0.07483736929999128</v>
+      </c>
+      <c r="G13">
+        <v>0.006935326788133742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01971510757647432</v>
+        <v>-0.02270642158582139</v>
       </c>
       <c r="C14">
-        <v>0.04489571416415391</v>
+        <v>-0.0453278103603342</v>
       </c>
       <c r="D14">
-        <v>-0.05537014328298605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.05346712930432213</v>
+      </c>
+      <c r="E14">
+        <v>-0.01104973459959976</v>
+      </c>
+      <c r="F14">
+        <v>0.0776322054858798</v>
+      </c>
+      <c r="G14">
+        <v>-0.01324167650718043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03137432357502065</v>
+        <v>-0.03354456974701459</v>
       </c>
       <c r="C15">
-        <v>0.05754349714803626</v>
+        <v>-0.05724481303335555</v>
       </c>
       <c r="D15">
-        <v>-0.04555781842595151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03925303865024461</v>
+      </c>
+      <c r="E15">
+        <v>-0.03433898917365949</v>
+      </c>
+      <c r="F15">
+        <v>0.02594669559362502</v>
+      </c>
+      <c r="G15">
+        <v>-0.01281367469483573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05620714134387817</v>
+        <v>-0.05616571934053014</v>
       </c>
       <c r="C16">
-        <v>0.1462078139835032</v>
+        <v>-0.1467691250146373</v>
       </c>
       <c r="D16">
-        <v>-0.08379226250581001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.07560427622742542</v>
+      </c>
+      <c r="E16">
+        <v>0.004556021732827003</v>
+      </c>
+      <c r="F16">
+        <v>0.07357765648924945</v>
+      </c>
+      <c r="G16">
+        <v>-0.0005171655266788847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.005710269281330754</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.004790399299659478</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002890774669948862</v>
+      </c>
+      <c r="E17">
+        <v>0.007683918456853944</v>
+      </c>
+      <c r="F17">
+        <v>-0.007322521115510045</v>
+      </c>
+      <c r="G17">
+        <v>-0.01482127414818506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03681929751719636</v>
+        <v>-0.05225023809781513</v>
       </c>
       <c r="C18">
-        <v>0.05106987524216061</v>
+        <v>-0.04559091803432454</v>
       </c>
       <c r="D18">
-        <v>-0.002205592423113079</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.006049329375793049</v>
+      </c>
+      <c r="E18">
+        <v>0.001576823730656241</v>
+      </c>
+      <c r="F18">
+        <v>-0.05877879658270141</v>
+      </c>
+      <c r="G18">
+        <v>-0.003996486418407865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05654991597689808</v>
+        <v>-0.05644977944168584</v>
       </c>
       <c r="C20">
-        <v>0.09528801809370251</v>
+        <v>-0.09432503937653169</v>
       </c>
       <c r="D20">
-        <v>-0.0931470593333085</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.08583628582102239</v>
+      </c>
+      <c r="E20">
+        <v>-0.02445484771311961</v>
+      </c>
+      <c r="F20">
+        <v>0.06884295936476119</v>
+      </c>
+      <c r="G20">
+        <v>-0.01008684535415059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04342448069447056</v>
+        <v>-0.04506498556875173</v>
       </c>
       <c r="C21">
-        <v>0.06121069453678084</v>
+        <v>-0.05862971756533701</v>
       </c>
       <c r="D21">
-        <v>-0.01243157314897563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01059841674699416</v>
+      </c>
+      <c r="E21">
+        <v>-0.02067770853807517</v>
+      </c>
+      <c r="F21">
+        <v>0.06822232215846288</v>
+      </c>
+      <c r="G21">
+        <v>0.01767117730976777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04554500249962978</v>
+        <v>-0.04455856932590198</v>
       </c>
       <c r="C22">
-        <v>0.02481664299890742</v>
+        <v>-0.03033474595431129</v>
       </c>
       <c r="D22">
-        <v>-0.005396974018298067</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.01016292978322319</v>
+      </c>
+      <c r="E22">
+        <v>0.1560072802988633</v>
+      </c>
+      <c r="F22">
+        <v>-0.01429446892892998</v>
+      </c>
+      <c r="G22">
+        <v>0.002864482262379453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04555456040518173</v>
+        <v>-0.04456670537847252</v>
       </c>
       <c r="C23">
-        <v>0.02480954831194068</v>
+        <v>-0.03032867659193181</v>
       </c>
       <c r="D23">
-        <v>-0.005381376317596188</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.01014802211710241</v>
+      </c>
+      <c r="E23">
+        <v>0.1560528476777018</v>
+      </c>
+      <c r="F23">
+        <v>-0.01428363629878692</v>
+      </c>
+      <c r="G23">
+        <v>0.002825302496695777</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06492474394551931</v>
+        <v>-0.06433019795274716</v>
       </c>
       <c r="C24">
-        <v>0.1336375904174592</v>
+        <v>-0.1328459354936663</v>
       </c>
       <c r="D24">
-        <v>-0.07313519716064579</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06570901026820956</v>
+      </c>
+      <c r="E24">
+        <v>-0.01557215952838405</v>
+      </c>
+      <c r="F24">
+        <v>0.07163630404681209</v>
+      </c>
+      <c r="G24">
+        <v>0.003964653912077705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07080026655071581</v>
+        <v>-0.06934816487951886</v>
       </c>
       <c r="C25">
-        <v>0.1185835723061306</v>
+        <v>-0.1183801200120096</v>
       </c>
       <c r="D25">
-        <v>-0.04506913422452965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.03581553974805485</v>
+      </c>
+      <c r="E25">
+        <v>-0.03468335122499872</v>
+      </c>
+      <c r="F25">
+        <v>0.08944373259482218</v>
+      </c>
+      <c r="G25">
+        <v>0.00437201245914839</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05559534980451292</v>
+        <v>-0.05979187067261692</v>
       </c>
       <c r="C26">
-        <v>0.0683678442768223</v>
+        <v>-0.06912450164100196</v>
       </c>
       <c r="D26">
-        <v>-0.03832547261321693</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.03217398993579226</v>
+      </c>
+      <c r="E26">
+        <v>-0.004995054406335969</v>
+      </c>
+      <c r="F26">
+        <v>0.08097617512092603</v>
+      </c>
+      <c r="G26">
+        <v>-0.01066765947267938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1723591769668328</v>
+        <v>-0.1750512280443684</v>
       </c>
       <c r="C28">
-        <v>-0.2276897906232865</v>
+        <v>0.2274955166215876</v>
       </c>
       <c r="D28">
-        <v>0.03320471222378039</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.04220604940829253</v>
+      </c>
+      <c r="E28">
+        <v>-0.05331045267321822</v>
+      </c>
+      <c r="F28">
+        <v>0.1410184133125474</v>
+      </c>
+      <c r="G28">
+        <v>-0.01540631671120993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02374257665399288</v>
+        <v>-0.02646272493751896</v>
       </c>
       <c r="C29">
-        <v>0.0512764191082184</v>
+        <v>-0.04902935541051633</v>
       </c>
       <c r="D29">
-        <v>-0.02458626611879845</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02442279530470927</v>
+      </c>
+      <c r="E29">
+        <v>0.009700192362622071</v>
+      </c>
+      <c r="F29">
+        <v>0.07377219837236004</v>
+      </c>
+      <c r="G29">
+        <v>-0.00864188882684242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03843755603839774</v>
+        <v>-0.04021156969815606</v>
       </c>
       <c r="C30">
-        <v>0.06920694959873955</v>
+        <v>-0.07614191465857682</v>
       </c>
       <c r="D30">
-        <v>-0.1086476157981818</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08543291707242977</v>
+      </c>
+      <c r="E30">
+        <v>-0.1184908210563088</v>
+      </c>
+      <c r="F30">
+        <v>0.06147608753785484</v>
+      </c>
+      <c r="G30">
+        <v>-0.02272251228179403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05217899718580967</v>
+        <v>-0.05155433933829283</v>
       </c>
       <c r="C31">
-        <v>0.03356837827200204</v>
+        <v>-0.03607066533955403</v>
       </c>
       <c r="D31">
-        <v>-0.0224337349797218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02635831130581617</v>
+      </c>
+      <c r="E31">
+        <v>0.02688304076731527</v>
+      </c>
+      <c r="F31">
+        <v>0.0204600503326524</v>
+      </c>
+      <c r="G31">
+        <v>0.02135198619892727</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04452048691148844</v>
+        <v>-0.04892944394383802</v>
       </c>
       <c r="C32">
-        <v>0.05247151927344954</v>
+        <v>-0.04983893887447748</v>
       </c>
       <c r="D32">
-        <v>-0.03094921427092768</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03195495946834227</v>
+      </c>
+      <c r="E32">
+        <v>0.006053761719321453</v>
+      </c>
+      <c r="F32">
+        <v>0.006615093483782189</v>
+      </c>
+      <c r="G32">
+        <v>-0.009045249957844835</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07882836515410827</v>
+        <v>-0.08188178933219074</v>
       </c>
       <c r="C33">
-        <v>0.1137037840984749</v>
+        <v>-0.1220902707777607</v>
       </c>
       <c r="D33">
-        <v>-0.07936593770111308</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0761475994174055</v>
+      </c>
+      <c r="E33">
+        <v>-0.02316602900462513</v>
+      </c>
+      <c r="F33">
+        <v>0.07129457708710253</v>
+      </c>
+      <c r="G33">
+        <v>-0.004459612081312588</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05421879277482887</v>
+        <v>-0.05400090936312672</v>
       </c>
       <c r="C34">
-        <v>0.1201382635359524</v>
+        <v>-0.1222862871234832</v>
       </c>
       <c r="D34">
-        <v>-0.08435530494062395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.06686573111969667</v>
+      </c>
+      <c r="E34">
+        <v>-0.05058271419733836</v>
+      </c>
+      <c r="F34">
+        <v>0.07944450314370048</v>
+      </c>
+      <c r="G34">
+        <v>-0.0269747391225715</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02599658449802663</v>
+        <v>-0.02888242290027462</v>
       </c>
       <c r="C35">
-        <v>0.01520645615375845</v>
+        <v>-0.01783531043014518</v>
       </c>
       <c r="D35">
-        <v>-0.02994513369071758</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.02822619073813232</v>
+      </c>
+      <c r="E35">
+        <v>0.01073234389885313</v>
+      </c>
+      <c r="F35">
+        <v>0.0331960090736514</v>
+      </c>
+      <c r="G35">
+        <v>-0.03105916244379711</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0227335671101062</v>
+        <v>-0.02716919504091511</v>
       </c>
       <c r="C36">
-        <v>0.05055985206207711</v>
+        <v>-0.04965158320606235</v>
       </c>
       <c r="D36">
-        <v>-0.07339949919147237</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.06386407024411909</v>
+      </c>
+      <c r="E36">
+        <v>-0.01192901496254636</v>
+      </c>
+      <c r="F36">
+        <v>0.02316079724659924</v>
+      </c>
+      <c r="G36">
+        <v>-0.08292249294278752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-7.221762404551865e-05</v>
+        <v>-0.003443696125950227</v>
       </c>
       <c r="C37">
-        <v>-0.0002027949719538859</v>
+        <v>-0.007285734805511587</v>
       </c>
       <c r="D37">
-        <v>-0.000279640024591098</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.001900872499827675</v>
+      </c>
+      <c r="E37">
+        <v>-0.001417804364656181</v>
+      </c>
+      <c r="F37">
+        <v>0.01056514306947891</v>
+      </c>
+      <c r="G37">
+        <v>0.005555878442945174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08075732522713094</v>
+        <v>-0.07522206649904506</v>
       </c>
       <c r="C39">
-        <v>0.1479572733553922</v>
+        <v>-0.143572517980217</v>
       </c>
       <c r="D39">
-        <v>-0.04719499686097593</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04179788412424573</v>
+      </c>
+      <c r="E39">
+        <v>0.005387402991641839</v>
+      </c>
+      <c r="F39">
+        <v>0.1313773699908468</v>
+      </c>
+      <c r="G39">
+        <v>0.03298826889822186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04500120731616308</v>
+        <v>-0.04964467744128209</v>
       </c>
       <c r="C40">
-        <v>0.06790265976438173</v>
+        <v>-0.0730960484004425</v>
       </c>
       <c r="D40">
-        <v>-0.02717539367795578</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01925312309681924</v>
+      </c>
+      <c r="E40">
+        <v>-0.00391786540310171</v>
+      </c>
+      <c r="F40">
+        <v>0.04665964668008188</v>
+      </c>
+      <c r="G40">
+        <v>-0.04504818303312115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02667155859971077</v>
+        <v>-0.02834525431235475</v>
       </c>
       <c r="C41">
-        <v>0.02217458000079527</v>
+        <v>-0.02326500392230525</v>
       </c>
       <c r="D41">
-        <v>0.005304645962648515</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.00472036260023168</v>
+      </c>
+      <c r="E41">
+        <v>0.009259535897786622</v>
+      </c>
+      <c r="F41">
+        <v>-0.01041541975594891</v>
+      </c>
+      <c r="G41">
+        <v>-0.01253656082879382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04187363408579434</v>
+        <v>-0.04128764706816701</v>
       </c>
       <c r="C43">
-        <v>0.03944756881041468</v>
+        <v>-0.03620826072896088</v>
       </c>
       <c r="D43">
-        <v>-0.01159990207187733</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01186619837010051</v>
+      </c>
+      <c r="E43">
+        <v>0.0326093691631835</v>
+      </c>
+      <c r="F43">
+        <v>0.02586376029342053</v>
+      </c>
+      <c r="G43">
+        <v>-0.001245703455625857</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05459667032075466</v>
+        <v>-0.06230757353801779</v>
       </c>
       <c r="C44">
-        <v>0.0792443923159917</v>
+        <v>-0.08319332837906923</v>
       </c>
       <c r="D44">
-        <v>-0.2750641226255499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.241544139017105</v>
+      </c>
+      <c r="E44">
+        <v>-0.1607516517594188</v>
+      </c>
+      <c r="F44">
+        <v>0.1188391351195635</v>
+      </c>
+      <c r="G44">
+        <v>-0.169910328939739</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0003704845031672454</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-0.0009423093151630995</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.001733406575217757</v>
+      </c>
+      <c r="E45">
+        <v>-0.001459639774991175</v>
+      </c>
+      <c r="F45">
+        <v>-0.00324919069519294</v>
+      </c>
+      <c r="G45">
+        <v>0.004637657336238708</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02902677896553802</v>
+        <v>-0.0286861843324437</v>
       </c>
       <c r="C46">
-        <v>0.03722902735916591</v>
+        <v>-0.03736848714328169</v>
       </c>
       <c r="D46">
-        <v>-0.02707308193484224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03180488476726897</v>
+      </c>
+      <c r="E46">
+        <v>0.02708082648106865</v>
+      </c>
+      <c r="F46">
+        <v>0.07178518296860507</v>
+      </c>
+      <c r="G46">
+        <v>0.01980339569622758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05346670085615416</v>
+        <v>-0.0525876355121532</v>
       </c>
       <c r="C47">
-        <v>0.03106264612097438</v>
+        <v>-0.03388512014480218</v>
       </c>
       <c r="D47">
-        <v>0.00405909167567603</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.006399216315425</v>
+      </c>
+      <c r="E47">
+        <v>0.05703964800222217</v>
+      </c>
+      <c r="F47">
+        <v>-0.004944409416416044</v>
+      </c>
+      <c r="G47">
+        <v>0.0301001999156866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04576591652224593</v>
+        <v>-0.04913772971994688</v>
       </c>
       <c r="C48">
-        <v>0.06892919818627256</v>
+        <v>-0.06849912852864719</v>
       </c>
       <c r="D48">
-        <v>-0.02089752822457069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01706099203341709</v>
+      </c>
+      <c r="E48">
+        <v>-0.03125142095368773</v>
+      </c>
+      <c r="F48">
+        <v>0.055042270751156</v>
+      </c>
+      <c r="G48">
+        <v>0.02212913318337434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1931058330457257</v>
+        <v>-0.1969519844420348</v>
       </c>
       <c r="C49">
-        <v>-0.01536035577811598</v>
+        <v>0.009392327613484495</v>
       </c>
       <c r="D49">
-        <v>-0.01633238665184973</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02125913348775602</v>
+      </c>
+      <c r="E49">
+        <v>-0.03952880669962183</v>
+      </c>
+      <c r="F49">
+        <v>-0.05855096169639488</v>
+      </c>
+      <c r="G49">
+        <v>0.003982687150190988</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05055835616392634</v>
+        <v>-0.0519945238641378</v>
       </c>
       <c r="C50">
-        <v>0.03231030360405028</v>
+        <v>-0.03456767088200757</v>
       </c>
       <c r="D50">
-        <v>-0.02943159101179963</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03297876700724998</v>
+      </c>
+      <c r="E50">
+        <v>0.01242901105554097</v>
+      </c>
+      <c r="F50">
+        <v>0.009326255769328277</v>
+      </c>
+      <c r="G50">
+        <v>0.02307905750403097</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1429211365652562</v>
+        <v>-0.1365688863532389</v>
       </c>
       <c r="C52">
-        <v>0.03148161750138921</v>
+        <v>-0.03287286476126649</v>
       </c>
       <c r="D52">
-        <v>-0.05322136630258301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.05700368717108215</v>
+      </c>
+      <c r="E52">
+        <v>0.01598410025135914</v>
+      </c>
+      <c r="F52">
+        <v>-0.0745536127741151</v>
+      </c>
+      <c r="G52">
+        <v>0.04140857874539082</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1704038425276143</v>
+        <v>-0.1621899996529186</v>
       </c>
       <c r="C53">
-        <v>-0.01310626946599847</v>
+        <v>0.008274382679390298</v>
       </c>
       <c r="D53">
-        <v>-0.08730418499314962</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.09795533357201842</v>
+      </c>
+      <c r="E53">
+        <v>0.008230968392352728</v>
+      </c>
+      <c r="F53">
+        <v>-0.1223419318297439</v>
+      </c>
+      <c r="G53">
+        <v>0.08360589334139075</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01065817503877311</v>
+        <v>-0.01423364041973284</v>
       </c>
       <c r="C54">
-        <v>0.03458754963377993</v>
+        <v>-0.03501296796447589</v>
       </c>
       <c r="D54">
-        <v>-0.02285379912003361</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02461786802799852</v>
+      </c>
+      <c r="E54">
+        <v>0.007613681533358435</v>
+      </c>
+      <c r="F54">
+        <v>0.04537735775100639</v>
+      </c>
+      <c r="G54">
+        <v>-0.001462745546972006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.121809019245215</v>
+        <v>-0.1182700581455994</v>
       </c>
       <c r="C55">
-        <v>0.008303407780593035</v>
+        <v>-0.01395004909048789</v>
       </c>
       <c r="D55">
-        <v>-0.07585686181574489</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.08231036640863668</v>
+      </c>
+      <c r="E55">
+        <v>0.02720734313856643</v>
+      </c>
+      <c r="F55">
+        <v>-0.04094884276721216</v>
+      </c>
+      <c r="G55">
+        <v>0.07545541774613478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1798293607466124</v>
+        <v>-0.1724515543365477</v>
       </c>
       <c r="C56">
-        <v>-0.01046718071787581</v>
+        <v>0.008962047322145958</v>
       </c>
       <c r="D56">
-        <v>-0.04411489172351903</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05873073826414018</v>
+      </c>
+      <c r="E56">
+        <v>0.04233521076033784</v>
+      </c>
+      <c r="F56">
+        <v>-0.151643028087915</v>
+      </c>
+      <c r="G56">
+        <v>0.08576102123710956</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04272328977888518</v>
+        <v>-0.04334095407366698</v>
       </c>
       <c r="C58">
-        <v>0.0969330986166989</v>
+        <v>-0.10564031691753</v>
       </c>
       <c r="D58">
-        <v>-0.01517463504174604</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02345148079281924</v>
+      </c>
+      <c r="E58">
+        <v>0.02922223999847505</v>
+      </c>
+      <c r="F58">
+        <v>0.04377285359372297</v>
+      </c>
+      <c r="G58">
+        <v>0.01708936324968596</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1891579526337259</v>
+        <v>-0.1923412969482438</v>
       </c>
       <c r="C59">
-        <v>-0.1758728689456612</v>
+        <v>0.1786351912712644</v>
       </c>
       <c r="D59">
-        <v>0.0767817448238665</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0747352198753637</v>
+      </c>
+      <c r="E59">
+        <v>0.04268923386238815</v>
+      </c>
+      <c r="F59">
+        <v>0.0789961636503121</v>
+      </c>
+      <c r="G59">
+        <v>0.02943800043949888</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.214440714032234</v>
+        <v>-0.2091820846053503</v>
       </c>
       <c r="C60">
-        <v>0.008915293843086038</v>
+        <v>-0.01424859108270121</v>
       </c>
       <c r="D60">
-        <v>0.06897466719686775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04919575251606331</v>
+      </c>
+      <c r="E60">
+        <v>0.04722791482598014</v>
+      </c>
+      <c r="F60">
+        <v>-0.1892649538529752</v>
+      </c>
+      <c r="G60">
+        <v>0.09801717984882888</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06421226206283885</v>
+        <v>-0.06150706995531166</v>
       </c>
       <c r="C61">
-        <v>0.1223763691784036</v>
+        <v>-0.1210724403365555</v>
       </c>
       <c r="D61">
-        <v>-0.04927011103266558</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04411138335301529</v>
+      </c>
+      <c r="E61">
+        <v>0.004077606576032866</v>
+      </c>
+      <c r="F61">
+        <v>0.08731890837491052</v>
+      </c>
+      <c r="G61">
+        <v>0.009480105613415214</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1687479362433265</v>
+        <v>-0.1648550279058755</v>
       </c>
       <c r="C62">
-        <v>-0.006998807974859913</v>
+        <v>0.004874898786850256</v>
       </c>
       <c r="D62">
-        <v>-0.03818165034621302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.05267099334538877</v>
+      </c>
+      <c r="E62">
+        <v>0.03330740080808117</v>
+      </c>
+      <c r="F62">
+        <v>-0.1228457208531829</v>
+      </c>
+      <c r="G62">
+        <v>0.0744203479344097</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03829892624050691</v>
+        <v>-0.04294677720933389</v>
       </c>
       <c r="C63">
-        <v>0.07479071644071683</v>
+        <v>-0.07668787508705908</v>
       </c>
       <c r="D63">
-        <v>-0.04081364553315576</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.03671739941921877</v>
+      </c>
+      <c r="E63">
+        <v>0.007576903147781797</v>
+      </c>
+      <c r="F63">
+        <v>0.04841045464762011</v>
+      </c>
+      <c r="G63">
+        <v>-0.03190550545234028</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1124293334567972</v>
+        <v>-0.1098604075330746</v>
       </c>
       <c r="C64">
-        <v>0.05118994274795804</v>
+        <v>-0.05445549372425644</v>
       </c>
       <c r="D64">
-        <v>-0.03896558039136525</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03927622088225886</v>
+      </c>
+      <c r="E64">
+        <v>0.002971830091678633</v>
+      </c>
+      <c r="F64">
+        <v>-0.03604507138212023</v>
+      </c>
+      <c r="G64">
+        <v>0.00226398227570855</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1585192311227916</v>
+        <v>-0.1617191362357513</v>
       </c>
       <c r="C65">
-        <v>-0.05822245728974695</v>
+        <v>0.04801281137131402</v>
       </c>
       <c r="D65">
-        <v>-0.04392186348897649</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04790318787808964</v>
+      </c>
+      <c r="E65">
+        <v>-0.03186719926942786</v>
+      </c>
+      <c r="F65">
+        <v>-0.01730405309714202</v>
+      </c>
+      <c r="G65">
+        <v>0.02789792869368149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09800774473353391</v>
+        <v>-0.09180125718508116</v>
       </c>
       <c r="C66">
-        <v>0.1258969428164541</v>
+        <v>-0.127206274222504</v>
       </c>
       <c r="D66">
-        <v>-0.04867344872181591</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03974899297669273</v>
+      </c>
+      <c r="E66">
+        <v>-0.003329476495217589</v>
+      </c>
+      <c r="F66">
+        <v>0.1022564407174108</v>
+      </c>
+      <c r="G66">
+        <v>-0.01181842436084138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05884128113708968</v>
+        <v>-0.04946698181194741</v>
       </c>
       <c r="C67">
-        <v>0.09104534586571847</v>
+        <v>-0.0848503624001396</v>
       </c>
       <c r="D67">
-        <v>0.02215344557395636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.019315663032941</v>
+      </c>
+      <c r="E67">
+        <v>0.09435557423425772</v>
+      </c>
+      <c r="F67">
+        <v>-0.03320613373132712</v>
+      </c>
+      <c r="G67">
+        <v>0.001876872853703492</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1411903705466368</v>
+        <v>-0.1439883098589943</v>
       </c>
       <c r="C68">
-        <v>-0.2444433035315374</v>
+        <v>0.2462555299448194</v>
       </c>
       <c r="D68">
-        <v>0.06700991776734333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.07303270245776229</v>
+      </c>
+      <c r="E68">
+        <v>-0.08642331300937942</v>
+      </c>
+      <c r="F68">
+        <v>0.1229201769117737</v>
+      </c>
+      <c r="G68">
+        <v>0.0169525869921518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03964333675956967</v>
+        <v>-0.03869976774251858</v>
       </c>
       <c r="C69">
-        <v>0.01620992645083005</v>
+        <v>-0.01812928651713091</v>
       </c>
       <c r="D69">
-        <v>-0.02339552379916449</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02852502816333725</v>
+      </c>
+      <c r="E69">
+        <v>0.05771514255184964</v>
+      </c>
+      <c r="F69">
+        <v>-0.04296951205744356</v>
+      </c>
+      <c r="G69">
+        <v>-0.02196715358622859</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07282383860643935</v>
+        <v>-0.07359363089222917</v>
       </c>
       <c r="C70">
-        <v>0.09701600316250505</v>
+        <v>-0.09331305703046347</v>
       </c>
       <c r="D70">
-        <v>0.4698431491089864</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.3508423417798042</v>
+      </c>
+      <c r="E70">
+        <v>0.3932586032542666</v>
+      </c>
+      <c r="F70">
+        <v>-0.2577101115772137</v>
+      </c>
+      <c r="G70">
+        <v>0.4158625540113645</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1643042354658694</v>
+        <v>-0.1684992835521848</v>
       </c>
       <c r="C71">
-        <v>-0.2519760749417985</v>
+        <v>0.2505688612587162</v>
       </c>
       <c r="D71">
-        <v>0.07474225794066006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.08304112961445662</v>
+      </c>
+      <c r="E71">
+        <v>-0.09423692605243207</v>
+      </c>
+      <c r="F71">
+        <v>0.1250001351955072</v>
+      </c>
+      <c r="G71">
+        <v>0.01543716755181382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1434205223581445</v>
+        <v>-0.1490440358277014</v>
       </c>
       <c r="C72">
-        <v>0.007734163757843888</v>
+        <v>-0.007060160430598498</v>
       </c>
       <c r="D72">
-        <v>-0.07918023356612031</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07753851373430762</v>
+      </c>
+      <c r="E72">
+        <v>0.02721658384466449</v>
+      </c>
+      <c r="F72">
+        <v>-0.03039048838822573</v>
+      </c>
+      <c r="G72">
+        <v>-0.006982536114853027</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1918745953966647</v>
+        <v>-0.1998186190119662</v>
       </c>
       <c r="C73">
-        <v>0.02350314802454996</v>
+        <v>-0.03169598951059213</v>
       </c>
       <c r="D73">
-        <v>-0.07318049041821749</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.08080282267375047</v>
+      </c>
+      <c r="E73">
+        <v>0.03344402354661901</v>
+      </c>
+      <c r="F73">
+        <v>-0.1091261111961951</v>
+      </c>
+      <c r="G73">
+        <v>-0.00622035631395759</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08596503649255291</v>
+        <v>-0.08528260433794096</v>
       </c>
       <c r="C74">
-        <v>0.0007157548080184453</v>
+        <v>-0.007101622700806817</v>
       </c>
       <c r="D74">
-        <v>-0.07214348988723636</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.07921945679983977</v>
+      </c>
+      <c r="E74">
+        <v>0.001028048138425928</v>
+      </c>
+      <c r="F74">
+        <v>-0.07473585905390373</v>
+      </c>
+      <c r="G74">
+        <v>0.004649633227078252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1233332023926329</v>
+        <v>-0.1154631160878105</v>
       </c>
       <c r="C75">
-        <v>0.01841066688458134</v>
+        <v>-0.02133076088321505</v>
       </c>
       <c r="D75">
-        <v>-0.0674734680063227</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.07232119571625764</v>
+      </c>
+      <c r="E75">
+        <v>0.04941933573096163</v>
+      </c>
+      <c r="F75">
+        <v>-0.06570837974820359</v>
+      </c>
+      <c r="G75">
+        <v>0.05052043956316369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07262021140660667</v>
+        <v>-0.08653443813897738</v>
       </c>
       <c r="C77">
-        <v>0.1143963992559666</v>
+        <v>-0.1161039936853443</v>
       </c>
       <c r="D77">
-        <v>-0.07083766840222575</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.07855975469185768</v>
+      </c>
+      <c r="E77">
+        <v>-0.05006437635232252</v>
+      </c>
+      <c r="F77">
+        <v>0.08689620630906765</v>
+      </c>
+      <c r="G77">
+        <v>0.1035142301129039</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08588150992527818</v>
+        <v>-0.09016003249221066</v>
       </c>
       <c r="C78">
-        <v>0.1221340235578334</v>
+        <v>-0.1224762173252651</v>
       </c>
       <c r="D78">
-        <v>-0.08259532402676117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.06875561724947683</v>
+      </c>
+      <c r="E78">
+        <v>-0.03846382090399094</v>
+      </c>
+      <c r="F78">
+        <v>0.1058304087355988</v>
+      </c>
+      <c r="G78">
+        <v>0.08476240003767854</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1665267643169435</v>
+        <v>-0.1619698910796161</v>
       </c>
       <c r="C79">
-        <v>0.01692027418489512</v>
+        <v>-0.01884144678764613</v>
       </c>
       <c r="D79">
-        <v>-0.03524653491442365</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.04410445050436993</v>
+      </c>
+      <c r="E79">
+        <v>0.03576296427871773</v>
+      </c>
+      <c r="F79">
+        <v>-0.05842656538823115</v>
+      </c>
+      <c r="G79">
+        <v>0.05082837752934966</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0749097046400429</v>
+        <v>-0.07258236493927284</v>
       </c>
       <c r="C80">
-        <v>0.0718839863069997</v>
+        <v>-0.06776542940678196</v>
       </c>
       <c r="D80">
-        <v>-0.04546439735820191</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02772519101473716</v>
+      </c>
+      <c r="E80">
+        <v>0.02969657617457627</v>
+      </c>
+      <c r="F80">
+        <v>0.0901622811554329</v>
+      </c>
+      <c r="G80">
+        <v>-0.1071379994989803</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1117950243627359</v>
+        <v>-0.1048577606924809</v>
       </c>
       <c r="C81">
-        <v>-0.01560830184046762</v>
+        <v>0.01268345587333336</v>
       </c>
       <c r="D81">
-        <v>-0.03694240550379012</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.04469037532361244</v>
+      </c>
+      <c r="E81">
+        <v>0.06435802422243952</v>
+      </c>
+      <c r="F81">
+        <v>-0.07328121555804848</v>
+      </c>
+      <c r="G81">
+        <v>0.01178275618713573</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1609310297311902</v>
+        <v>-0.156648427929933</v>
       </c>
       <c r="C82">
-        <v>-0.01641849296244913</v>
+        <v>0.01291681874924219</v>
       </c>
       <c r="D82">
-        <v>-0.08022272758091284</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.08448277195641983</v>
+      </c>
+      <c r="E82">
+        <v>-0.01081313285403731</v>
+      </c>
+      <c r="F82">
+        <v>-0.1343577468481084</v>
+      </c>
+      <c r="G82">
+        <v>0.01582946088316219</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05495726561459595</v>
+        <v>-0.05058704779329085</v>
       </c>
       <c r="C83">
-        <v>0.06815035183912238</v>
+        <v>-0.06277942640354894</v>
       </c>
       <c r="D83">
-        <v>-0.001919270878937314</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.003317522586721595</v>
+      </c>
+      <c r="E83">
+        <v>0.003475736909162444</v>
+      </c>
+      <c r="F83">
+        <v>-0.0005721601687230851</v>
+      </c>
+      <c r="G83">
+        <v>0.01221776024695572</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05043571226188213</v>
+        <v>-0.04794602162695819</v>
       </c>
       <c r="C84">
-        <v>0.07212755503736343</v>
+        <v>-0.07100778681515227</v>
       </c>
       <c r="D84">
-        <v>-0.0001640787339264874</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.002979229684334812</v>
+      </c>
+      <c r="E84">
+        <v>0.03225826736750925</v>
+      </c>
+      <c r="F84">
+        <v>-0.006290100989637695</v>
+      </c>
+      <c r="G84">
+        <v>0.02452392246919559</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1393348241866059</v>
+        <v>-0.1335154815425754</v>
       </c>
       <c r="C85">
-        <v>0.00276202170709707</v>
+        <v>-0.006178447684442319</v>
       </c>
       <c r="D85">
-        <v>-0.09242989584696107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09342581791305943</v>
+      </c>
+      <c r="E85">
+        <v>0.0008720851634142319</v>
+      </c>
+      <c r="F85">
+        <v>-0.05542146504583661</v>
+      </c>
+      <c r="G85">
+        <v>0.03845419906591142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.0845613988971636</v>
+        <v>-0.08178284741500376</v>
       </c>
       <c r="C86">
-        <v>0.1481505322893416</v>
+        <v>-0.1480447582364784</v>
       </c>
       <c r="D86">
-        <v>0.3195777492188996</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.3333802403101053</v>
+      </c>
+      <c r="E86">
+        <v>0.5422081531950912</v>
+      </c>
+      <c r="F86">
+        <v>0.5403815164842052</v>
+      </c>
+      <c r="G86">
+        <v>-0.1402922052310534</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09099444206349595</v>
+        <v>-0.0876802232399686</v>
       </c>
       <c r="C87">
-        <v>0.10190866714769</v>
+        <v>-0.1001175711462323</v>
       </c>
       <c r="D87">
-        <v>-0.0491767220619016</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.02292414007964302</v>
+      </c>
+      <c r="E87">
+        <v>-0.1569260570216968</v>
+      </c>
+      <c r="F87">
+        <v>0.06896141230094047</v>
+      </c>
+      <c r="G87">
+        <v>-0.05427083074748316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06050954439264711</v>
+        <v>-0.05971006720092858</v>
       </c>
       <c r="C88">
-        <v>0.05958336366438498</v>
+        <v>-0.06044262523860109</v>
       </c>
       <c r="D88">
-        <v>-0.01580010229388555</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01796866464077763</v>
+      </c>
+      <c r="E88">
+        <v>0.01148063120758781</v>
+      </c>
+      <c r="F88">
+        <v>-0.02609135970978587</v>
+      </c>
+      <c r="G88">
+        <v>0.0140196356416209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1504516504757089</v>
+        <v>-0.1529482040046672</v>
       </c>
       <c r="C89">
-        <v>-0.1940893326828405</v>
+        <v>0.2031139842183614</v>
       </c>
       <c r="D89">
-        <v>0.04304425627807444</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0542687237287852</v>
+      </c>
+      <c r="E89">
+        <v>-0.08165589513261451</v>
+      </c>
+      <c r="F89">
+        <v>0.09423446597785931</v>
+      </c>
+      <c r="G89">
+        <v>-0.01030334207744642</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1798240874565402</v>
+        <v>-0.1864792045497409</v>
       </c>
       <c r="C90">
-        <v>-0.2233352371539557</v>
+        <v>0.2309844783768855</v>
       </c>
       <c r="D90">
-        <v>0.09172070506002145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.1082286973192496</v>
+      </c>
+      <c r="E90">
+        <v>-0.1234117350420062</v>
+      </c>
+      <c r="F90">
+        <v>0.1420430895163537</v>
+      </c>
+      <c r="G90">
+        <v>-0.002175024726703169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.126074919928671</v>
+        <v>-0.1205458086346917</v>
       </c>
       <c r="C91">
-        <v>-0.02417271742054691</v>
+        <v>0.02128519512175212</v>
       </c>
       <c r="D91">
-        <v>-0.04071558233845016</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.04880991079533482</v>
+      </c>
+      <c r="E91">
+        <v>0.1119234427223098</v>
+      </c>
+      <c r="F91">
+        <v>-0.09755443959153075</v>
+      </c>
+      <c r="G91">
+        <v>-0.0003149241588962667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1738109834588403</v>
+        <v>-0.1766170741241447</v>
       </c>
       <c r="C92">
-        <v>-0.2588592647160892</v>
+        <v>0.2721487294049049</v>
       </c>
       <c r="D92">
-        <v>0.07859000672394419</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.08284238577754155</v>
+      </c>
+      <c r="E92">
+        <v>-0.07557966491150257</v>
+      </c>
+      <c r="F92">
+        <v>0.1921110932554884</v>
+      </c>
+      <c r="G92">
+        <v>0.03918942421259142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1790754128093769</v>
+        <v>-0.1867436081020715</v>
       </c>
       <c r="C93">
-        <v>-0.2195159561254159</v>
+        <v>0.2242589516787347</v>
       </c>
       <c r="D93">
-        <v>0.05154447103535002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.05388885918688562</v>
+      </c>
+      <c r="E93">
+        <v>-0.05420135195808284</v>
+      </c>
+      <c r="F93">
+        <v>0.1007154216458689</v>
+      </c>
+      <c r="G93">
+        <v>0.05737962891148832</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1178934306485174</v>
+        <v>-0.1122187088083758</v>
       </c>
       <c r="C94">
-        <v>0.03367929260807971</v>
+        <v>-0.03399487484552893</v>
       </c>
       <c r="D94">
-        <v>-0.06159633498659008</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.06489128831149127</v>
+      </c>
+      <c r="E94">
+        <v>0.04782374284372551</v>
+      </c>
+      <c r="F94">
+        <v>-0.06435946725710384</v>
+      </c>
+      <c r="G94">
+        <v>0.0445690254874464</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1171945716835866</v>
+        <v>-0.1203139869892682</v>
       </c>
       <c r="C95">
-        <v>0.1003034665583343</v>
+        <v>-0.1111363884840129</v>
       </c>
       <c r="D95">
-        <v>-0.01972791324441324</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.02833636637545741</v>
+      </c>
+      <c r="E95">
+        <v>0.02903517343580984</v>
+      </c>
+      <c r="F95">
+        <v>0.07642663232619482</v>
+      </c>
+      <c r="G95">
+        <v>0.001318211121106037</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1165164000453996</v>
+        <v>-0.1140282303163429</v>
       </c>
       <c r="C96">
-        <v>0.1269215518618557</v>
+        <v>-0.1295956964078687</v>
       </c>
       <c r="D96">
-        <v>0.02811044289347436</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.01290064261157821</v>
+      </c>
+      <c r="E96">
+        <v>-0.00290827676541206</v>
+      </c>
+      <c r="F96">
+        <v>-0.06083180222691328</v>
+      </c>
+      <c r="G96">
+        <v>0.09750814979152765</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1918145398200826</v>
+        <v>-0.1962250776942605</v>
       </c>
       <c r="C97">
-        <v>0.005309370708315435</v>
+        <v>0.0001751548698624268</v>
       </c>
       <c r="D97">
-        <v>0.09589382433176878</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.1312804984113966</v>
+      </c>
+      <c r="E97">
+        <v>0.1644806672025622</v>
+      </c>
+      <c r="F97">
+        <v>-0.3240151927691786</v>
+      </c>
+      <c r="G97">
+        <v>-0.8122755719626195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2034472825868638</v>
+        <v>-0.2076151121299137</v>
       </c>
       <c r="C98">
-        <v>0.02662070807479633</v>
+        <v>-0.03034911101562465</v>
       </c>
       <c r="D98">
-        <v>0.1058535675909546</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.09640376428819612</v>
+      </c>
+      <c r="E98">
+        <v>-0.009855530122741957</v>
+      </c>
+      <c r="F98">
+        <v>-0.09368574872226608</v>
+      </c>
+      <c r="G98">
+        <v>0.0208279053080983</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05435998775442075</v>
+        <v>-0.05368314671869226</v>
       </c>
       <c r="C99">
-        <v>0.05849933558115352</v>
+        <v>-0.05912695933594204</v>
       </c>
       <c r="D99">
-        <v>-0.01227971015589033</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.00916710335676151</v>
+      </c>
+      <c r="E99">
+        <v>-0.004088391686462781</v>
+      </c>
+      <c r="F99">
+        <v>0.0318082652831739</v>
+      </c>
+      <c r="G99">
+        <v>-0.01615638410299679</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1084216215556848</v>
+        <v>-0.1019962672762513</v>
       </c>
       <c r="C100">
-        <v>0.3938387775221206</v>
+        <v>-0.3635332711249191</v>
       </c>
       <c r="D100">
-        <v>0.5835452728079921</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.6691710776808487</v>
+      </c>
+      <c r="E100">
+        <v>-0.5282303289644342</v>
+      </c>
+      <c r="F100">
+        <v>-0.0894723133885441</v>
+      </c>
+      <c r="G100">
+        <v>-0.009281610032176233</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02367033234692062</v>
+        <v>-0.02640037751033086</v>
       </c>
       <c r="C101">
-        <v>0.05077086430165846</v>
+        <v>-0.04848849781606488</v>
       </c>
       <c r="D101">
-        <v>-0.02036737724663662</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02144720937084533</v>
+      </c>
+      <c r="E101">
+        <v>0.01281469757639045</v>
+      </c>
+      <c r="F101">
+        <v>0.06929584940402173</v>
+      </c>
+      <c r="G101">
+        <v>-0.005162900983639886</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
